--- a/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
+++ b/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>Table Name -   PrlTrnGeneratedSalaryResetLog</t>
   </si>
@@ -197,13 +197,109 @@
   </si>
   <si>
     <t>FinalStsCreatedByIp</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OfficeTypeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get SalaryId  (PrlTrnGeneratedSalary) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OfficeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get TypeOfPostId  (MstPostType) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get EmpId  (MstEmployeeRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get ClassId  (MstClasses) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationId  (MstDesignation) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationTypeId  (MstDesignationType) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PayCommissionId  (MstPayCommission) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get PayScaleId  (MstPayScale) in Numaric </t>
+  </si>
+  <si>
+    <t>Get SalaryBasicPayScale  (MstLevelBasicPay) in Numaric *</t>
+  </si>
+  <si>
+    <t>Get GradeorLevelId  (MstGradePay) in Numaric  *</t>
+  </si>
+  <si>
+    <t>Take BankAccountNo as String.</t>
+  </si>
+  <si>
+    <t>Take BankIfscCode as String.</t>
+  </si>
+  <si>
+    <t>Take BankName as String.</t>
+  </si>
+  <si>
+    <t>Take BankBranchName as String.</t>
+  </si>
+  <si>
+    <t>Take SalaryPayableDays as Decimal.</t>
+  </si>
+  <si>
+    <t>Take SalaryEdPaybleDay as Decimal.</t>
+  </si>
+  <si>
+    <t>Take SalaryEarningTotal as Decimal.</t>
+  </si>
+  <si>
+    <t>Take SalaryNetSalary as Decimal.</t>
+  </si>
+  <si>
+    <t>Take SalaryMonthBasic as Decimal.</t>
+  </si>
+  <si>
+    <t>Take BasicSalery as Decimal.</t>
+  </si>
+  <si>
+    <t>Take SalaryMonthNo as int.</t>
+  </si>
+  <si>
+    <t>Take SalaryYear as int.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>For SalaryFinalStatus Check.</t>
+  </si>
+  <si>
+    <t>Take SalaryStatusId as int.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +314,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -254,14 +362,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,6 +373,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,696 +702,770 @@
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
+++ b/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
   <si>
     <t>Table Name -   PrlTrnGeneratedSalaryResetLog</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Take SalaryStatusId as int.</t>
+  </si>
+  <si>
+    <t>Take DepartmentId as int.</t>
+  </si>
+  <si>
+    <t>Take PayTypeId as int.</t>
+  </si>
+  <si>
+    <t>Take BankAccountTypeId as int.</t>
   </si>
 </sst>
 </file>
@@ -373,12 +382,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -386,6 +389,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +702,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,32 +715,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -769,7 +778,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -777,7 +786,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -786,7 +795,7 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -794,7 +803,7 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -803,7 +812,7 @@
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -811,7 +820,7 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -821,7 +830,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -829,7 +838,7 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -839,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -847,7 +856,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -857,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -865,7 +874,7 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -875,7 +884,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -883,7 +892,7 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -893,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -901,7 +910,7 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -911,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -919,7 +928,7 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -929,13 +938,15 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -945,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -953,7 +964,7 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -963,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -971,7 +982,7 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -981,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -989,7 +1000,7 @@
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -999,13 +1010,15 @@
         <v>13</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1015,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1033,7 +1046,9 @@
         <v>13</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1049,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1067,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1085,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1103,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1121,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1139,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1157,7 +1172,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1175,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1193,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1211,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1229,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1247,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1265,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1283,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1301,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1319,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1337,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1355,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1373,7 +1388,7 @@
         <v>54</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1391,7 +1406,7 @@
         <v>54</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1409,7 +1424,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1427,7 +1442,7 @@
         <v>54</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1445,7 +1460,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1463,7 +1478,7 @@
         <v>54</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
+++ b/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>Table Name -   PrlTrnGeneratedSalaryResetLog</t>
   </si>
@@ -302,13 +302,16 @@
   </si>
   <si>
     <t>Take BankAccountTypeId as int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +332,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,11 +378,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +442,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,10 +1539,21 @@
         <v>90</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
+++ b/Payroll/PrlTrnGeneratedSalaryResetLog.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name -   PrlTrnGeneratedSalaryResetLog</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -305,6 +302,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : वेतन रीसेट करने से संबंधित लॉग और रिकॉर्ड की जानकारी संग्रहीत करती है।
+</t>
   </si>
 </sst>
 </file>
@@ -758,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +784,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -801,22 +802,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,19 +825,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,16 +845,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,16 +862,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,17 +879,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,17 +897,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,17 +915,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,17 +933,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,17 +951,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,17 +969,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,17 +987,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,17 +1005,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,17 +1023,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,17 +1041,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,17 +1059,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,17 +1077,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,17 +1095,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,17 +1113,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,17 +1131,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,17 +1149,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,17 +1167,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,17 +1185,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1202,17 +1203,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,17 +1221,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,17 +1239,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1256,17 +1257,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,17 +1275,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,17 +1293,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,17 +1311,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,17 +1329,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,17 +1347,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,17 +1365,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,17 +1383,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,17 +1401,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,17 +1419,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,17 +1437,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,17 +1455,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,17 +1473,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,17 +1491,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,17 +1509,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,22 +1527,22 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
